--- a/dtrumah.xlsx
+++ b/dtrumah.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BAYU\smt 6\KECERDASAN BUATAN\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BAYU\smt 6\KECERDASAN BUATAN\rumah\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C847A145-7E30-453C-9AC4-106AECC22E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF36E02-B832-436E-B8A8-87B7B2CACD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,39 +33,165 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
   <si>
+    <t>STUDI KASUS: MEMBELI RUMAH</t>
+  </si>
+  <si>
+    <t>Usia</t>
+  </si>
+  <si>
+    <t>Pendapatan</t>
+  </si>
+  <si>
+    <t>Status Pernikahan</t>
+  </si>
+  <si>
+    <t>Jumlah Anak</t>
+  </si>
+  <si>
+    <t>Membeli Rumah</t>
+  </si>
+  <si>
+    <t>Muda</t>
+  </si>
+  <si>
+    <t>Rendah</t>
+  </si>
+  <si>
     <t>Single</t>
   </si>
   <si>
+    <t>Tidak ada</t>
+  </si>
+  <si>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>Dewasa</t>
+  </si>
+  <si>
+    <t>Tinggi</t>
+  </si>
+  <si>
+    <t>Menikah</t>
+  </si>
+  <si>
+    <t>Banyak</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
+    <t>Tua</t>
+  </si>
+  <si>
+    <t>Sedang</t>
+  </si>
+  <si>
+    <t>Sedikit</t>
+  </si>
+  <si>
+    <t>P(Ya)</t>
+  </si>
+  <si>
+    <t>P(Tidak)</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Membeli rumah</t>
+  </si>
+  <si>
+    <t>P(Ya)/P(Tidak)</t>
+  </si>
+  <si>
     <t>Misalkan kita ingin mendiagnosa laptop dengan gejala berikut:</t>
   </si>
   <si>
+    <t>Usia: Tua</t>
+  </si>
+  <si>
+    <t>Pendapatan : Tinggi</t>
+  </si>
+  <si>
+    <t>Status pernikahan : Single</t>
+  </si>
+  <si>
+    <t>Jumlah anak : Tidak ada</t>
+  </si>
+  <si>
+    <t>Probabilitas untuk Ya:</t>
+  </si>
+  <si>
+    <t>P(Tua|Ya):</t>
+  </si>
+  <si>
+    <t>P(Tinggi|Ya):</t>
+  </si>
+  <si>
     <t>P(Single|Yes):</t>
   </si>
   <si>
+    <t>P(Tidak ada|Yes):</t>
+  </si>
+  <si>
+    <t>Probabilitas untuk Tidak:</t>
+  </si>
+  <si>
+    <t>P(Tua|Tidak):</t>
+  </si>
+  <si>
+    <t>P(Tinggi|Tidak):</t>
+  </si>
+  <si>
+    <t>P(Single|Tidak):</t>
+  </si>
+  <si>
+    <t>P(Tidak ada|Tidak):</t>
+  </si>
+  <si>
+    <t>P(Ya|Membeli Rumah) =</t>
+  </si>
+  <si>
+    <t>P(Usia"Tua"|Ya)xP(Pendapatan"Tinggi"|Ya)xP(Status Pernikahan"Single"|Ya)xP(Jumlah anak"Tidak ada"|Ya)xP(Ya)/P(Membeli Rumah)</t>
+  </si>
+  <si>
+    <t>P(Tidak|Membeli Rumah) =</t>
+  </si>
+  <si>
+    <t>P(Usia"Tua"|Tidak )xP(Pendapatan"Tinggi"|Tidak)xP(Status Pernikahan"Single"|Tidak)xP(Jumlah anak"Tidak ada"|Tidak)xP(Tidak)/P(Membeli Rumah)</t>
+  </si>
+  <si>
+    <t>P(Ya|Membeli Rumah)=</t>
+  </si>
+  <si>
+    <t>P(Tidak|Membeli Rumah)=</t>
+  </si>
+  <si>
     <t>P(Tepat|Lulus)+P(Terlambat|Lulus)= 1</t>
   </si>
   <si>
     <t>Untuk normalisasi dengan persamaan berikut:</t>
   </si>
   <si>
+    <t>P(Ya|Membeli Rumah)'=</t>
+  </si>
+  <si>
     <t>P(Yes|Bluescreen)/P(Yes|Bluescreen)+P(No|Bluescreen)=</t>
   </si>
   <si>
+    <t>(1/4) / (1/4) + (0)=</t>
+  </si>
+  <si>
     <t>P(No|Bluescreen)'=</t>
   </si>
   <si>
     <t>P(No|Bluescreen)/P(Yes|Bluescreen)+P(No|Bluescreen)=</t>
   </si>
   <si>
-    <t>(1/4) / (1/4) + (0)=</t>
-  </si>
-  <si>
     <t>(0) / (1/4) + (0)=</t>
   </si>
   <si>
@@ -79,139 +202,16 @@
   </si>
   <si>
     <t>(0.04) / (0) + (0.04)=</t>
-  </si>
-  <si>
-    <t>Sedang</t>
-  </si>
-  <si>
-    <t>Banyak</t>
-  </si>
-  <si>
-    <t>Sedikit</t>
-  </si>
-  <si>
-    <t>Tinggi</t>
-  </si>
-  <si>
-    <t>Rendah</t>
-  </si>
-  <si>
-    <t>Usia</t>
-  </si>
-  <si>
-    <t>Pendapatan</t>
-  </si>
-  <si>
-    <t>Status Pernikahan</t>
-  </si>
-  <si>
-    <t>Jumlah Anak</t>
-  </si>
-  <si>
-    <t>Membeli Rumah</t>
-  </si>
-  <si>
-    <t>Muda</t>
-  </si>
-  <si>
-    <t>Dewasa</t>
-  </si>
-  <si>
-    <t>Tua</t>
-  </si>
-  <si>
-    <t>Menikah</t>
-  </si>
-  <si>
-    <t>Tidak ada</t>
-  </si>
-  <si>
-    <t>Tidak</t>
-  </si>
-  <si>
-    <t>Ya</t>
-  </si>
-  <si>
-    <t>Membeli rumah</t>
-  </si>
-  <si>
-    <t>Usia: Tua</t>
-  </si>
-  <si>
-    <t>Pendapatan : Tinggi</t>
-  </si>
-  <si>
-    <t>Status pernikahan : Single</t>
-  </si>
-  <si>
-    <t>Jumlah anak : Tidak ada</t>
-  </si>
-  <si>
-    <t>Probabilitas untuk Ya:</t>
-  </si>
-  <si>
-    <t>Probabilitas untuk Tidak:</t>
-  </si>
-  <si>
-    <t>P(Tua|Ya):</t>
-  </si>
-  <si>
-    <t>P(Tinggi|Ya):</t>
-  </si>
-  <si>
-    <t>P(Tidak ada|Yes):</t>
-  </si>
-  <si>
-    <t>P(Ya)</t>
-  </si>
-  <si>
-    <t>P(Tua|Tidak):</t>
-  </si>
-  <si>
-    <t>P(Tinggi|Tidak):</t>
-  </si>
-  <si>
-    <t>P(Single|Tidak):</t>
-  </si>
-  <si>
-    <t>P(Tidak ada|Tidak):</t>
-  </si>
-  <si>
-    <t>P(Usia"Tua"|Ya)xP(Pendapatan"Tinggi"|Ya)xP(Status Pernikahan"Single"|Ya)xP(Jumlah anak"Tidak ada"|Ya)xP(Ya)/P(Membeli Rumah)</t>
-  </si>
-  <si>
-    <t>P(Usia"Tua"|Tidak )xP(Pendapatan"Tinggi"|Tidak)xP(Status Pernikahan"Single"|Tidak)xP(Jumlah anak"Tidak ada"|Tidak)xP(Tidak)/P(Membeli Rumah)</t>
-  </si>
-  <si>
-    <t>P(Ya|Membeli Rumah)=</t>
-  </si>
-  <si>
-    <t>P(Tidak|Membeli Rumah)=</t>
-  </si>
-  <si>
-    <t>STUDI KASUS: MEMBELI RUMAH</t>
-  </si>
-  <si>
-    <t>P(Tidak)</t>
-  </si>
-  <si>
-    <t>P(Ya|Membeli Rumah) =</t>
-  </si>
-  <si>
-    <t>P(Tidak|Membeli Rumah) =</t>
-  </si>
-  <si>
-    <t>P(Ya|Membeli Rumah)'=</t>
-  </si>
-  <si>
-    <t>P(Ya)/P(Tidak)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,22 +220,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -249,36 +242,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -288,16 +283,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -306,7 +301,22 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -314,105 +324,221 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFCC99"/>
-    </mruColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -459,20 +585,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -502,12 +628,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -546,171 +672,196 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -724,15 +875,15 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+    <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -746,13 +897,13 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -766,22 +917,22 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
+    <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -796,22 +947,22 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
+    <row r="5" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -826,22 +977,22 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>31</v>
+    <row r="6" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -856,22 +1007,22 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -886,22 +1037,22 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>30</v>
+    <row r="8" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -916,22 +1067,22 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>30</v>
+    <row r="9" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -946,22 +1097,22 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
+    <row r="10" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>31</v>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -976,22 +1127,22 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>30</v>
+    <row r="11" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1006,22 +1157,22 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>31</v>
+    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1036,22 +1187,22 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1066,22 +1217,22 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>31</v>
+    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1096,13 +1247,13 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1116,15 +1267,15 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1138,20 +1289,20 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>52</v>
+    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1166,24 +1317,24 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="17">
         <f>COUNTIFS($B$5:$B$14, "Muda", $F$5:$F$14, "Ya")</f>
         <v>1</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="17">
         <f>COUNTIFS($B$5:$B$14, "Dewasa", $F$5:$F$14, "Tidak")</f>
         <v>1</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="18">
         <f>C18/COUNTIFS($F$5:$F$14, "Ya")</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="18">
         <f>D18/COUNTIFS($F$5:$F$14, "Tidak")</f>
         <v>0.25</v>
       </c>
@@ -1200,25 +1351,25 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5">
+    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="17">
         <f>COUNTIFS($B$5:$B$14, "Dewasa", $F$5:$F$14, "Ya")</f>
         <v>2</v>
       </c>
-      <c r="D19" s="5">
-        <f t="shared" ref="D19" si="0">COUNTIFS($B$5:$B$14, "Muda", $F$5:$F$14, "Tidak")</f>
+      <c r="D19" s="17">
+        <f>COUNTIFS($B$5:$B$14, "Muda", $F$5:$F$14, "Tidak")</f>
         <v>3</v>
       </c>
-      <c r="E19" s="33">
-        <f t="shared" ref="E19:E21" si="1">C19/COUNTIFS($F$5:$F$14, "Ya")</f>
+      <c r="E19" s="18">
+        <f>C19/COUNTIFS($F$5:$F$14, "Ya")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F19" s="33">
-        <f t="shared" ref="F19:F21" si="2">D19/COUNTIFS($F$5:$F$14, "Tidak")</f>
+      <c r="F19" s="18">
+        <f>D19/COUNTIFS($F$5:$F$14, "Tidak")</f>
         <v>0.75</v>
       </c>
       <c r="G19" s="2"/>
@@ -1234,25 +1385,25 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5">
+    <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17">
         <f>COUNTIFS($B$5:$B$14, "Tua", $F$5:$F$14, "Ya")</f>
         <v>3</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="17">
         <f>COUNTIFS($B$5:$B$14, "Tua", $F$5:$F$14, "Tidak")</f>
         <v>0</v>
       </c>
-      <c r="E20" s="33">
-        <f t="shared" si="1"/>
+      <c r="E20" s="18">
+        <f>C20/COUNTIFS($F$5:$F$14, "Ya")</f>
         <v>0.5</v>
       </c>
-      <c r="F20" s="33">
-        <f t="shared" si="2"/>
+      <c r="F20" s="18">
+        <f>D20/COUNTIFS($F$5:$F$14, "Tidak")</f>
         <v>0</v>
       </c>
       <c r="G20" s="2"/>
@@ -1268,10 +1419,10 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="20" t="s">
-        <v>1</v>
+    <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="C21" s="20">
         <f>SUM(C18:C20)</f>
@@ -1281,12 +1432,12 @@
         <f>SUM(D18:D20)</f>
         <v>4</v>
       </c>
-      <c r="E21" s="33">
-        <f t="shared" si="1"/>
+      <c r="E21" s="18">
+        <f>C21/COUNTIFS($F$5:$F$14, "Ya")</f>
         <v>1</v>
       </c>
-      <c r="F21" s="33">
-        <f t="shared" si="2"/>
+      <c r="F21" s="18">
+        <f>D21/COUNTIFS($F$5:$F$14, "Tidak")</f>
         <v>1</v>
       </c>
       <c r="G21" s="2"/>
@@ -1302,15 +1453,15 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1324,15 +1475,15 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+    <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1346,20 +1497,20 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>52</v>
+    <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1374,24 +1525,24 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="5">
+    <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="17">
         <f>COUNTIFS($C$5:$C$14, "Rendah", $F$5:$F$14, "Ya")</f>
         <v>0</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="17">
         <f>COUNTIFS($C$5:$C$14, "Rendah", $F$5:$F$14, "Tidak")</f>
         <v>3</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="18">
         <f>C25/COUNTIFS($F$5:$F$14, "Ya")</f>
         <v>0</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="18">
         <f>D25/COUNTIFS($F$5:$F$14, "Tidak")</f>
         <v>0.75</v>
       </c>
@@ -1408,25 +1559,25 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="5">
+    <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="17">
         <f>COUNTIFS($C$5:$C$14, "Sedang", $F$5:$F$14, "Ya")</f>
         <v>2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="17">
         <f>COUNTIFS($C$5:$C$14, "Sedang", $F$5:$F$14, "Tidak")</f>
         <v>1</v>
       </c>
-      <c r="E26" s="33">
-        <f t="shared" ref="E26:E27" si="3">C26/COUNTIFS($F$5:$F$14, "Ya")</f>
+      <c r="E26" s="18">
+        <f>C26/COUNTIFS($F$5:$F$14, "Ya")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F26" s="33">
-        <f t="shared" ref="F26:F28" si="4">D26/COUNTIFS($F$5:$F$14, "Tidak")</f>
+      <c r="F26" s="18">
+        <f>D26/COUNTIFS($F$5:$F$14, "Tidak")</f>
         <v>0.25</v>
       </c>
       <c r="G26" s="2"/>
@@ -1442,25 +1593,25 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="5">
+    <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="17">
         <f>COUNTIFS($C$5:$C$14, "Tinggi", $F$5:$F$14, "Ya")</f>
         <v>4</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="17">
         <f>COUNTIFS($C$5:$C$14, "Tinggi", $F$5:$F$14, "Tidak")</f>
         <v>0</v>
       </c>
-      <c r="E27" s="33">
-        <f t="shared" si="3"/>
+      <c r="E27" s="18">
+        <f>C27/COUNTIFS($F$5:$F$14, "Ya")</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F27" s="33">
-        <f t="shared" si="4"/>
+      <c r="F27" s="18">
+        <f>D27/COUNTIFS($F$5:$F$14, "Tidak")</f>
         <v>0</v>
       </c>
       <c r="G27" s="2"/>
@@ -1476,10 +1627,10 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="20" t="s">
-        <v>1</v>
+    <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="C28" s="20">
         <f>SUM(C25:C27)</f>
@@ -1489,12 +1640,12 @@
         <f>SUM(D25:D27)</f>
         <v>4</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="18">
         <f>C28/COUNTIFS($F$5:$F$14, "Ya")</f>
         <v>1</v>
       </c>
-      <c r="F28" s="33">
-        <f t="shared" si="4"/>
+      <c r="F28" s="18">
+        <f>D28/COUNTIFS($F$5:$F$14, "Tidak")</f>
         <v>1</v>
       </c>
       <c r="G28" s="2"/>
@@ -1510,13 +1661,13 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1530,15 +1681,15 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
+    <row r="30" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1552,20 +1703,20 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>52</v>
+    <row r="31" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1580,26 +1731,26 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="5">
+    <row r="32" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="17">
         <f>COUNTIFS($D$5:$D$14, "Single", $F$5:$F$14, "Ya")</f>
         <v>1</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="17">
         <f>COUNTIFS($D$5:$D$14, "Menikah", $F$5:$F$14, "Tidak")</f>
         <v>1</v>
       </c>
-      <c r="E32" s="33">
-        <f>C32/COUNTIFS($F$5:$F$14, "Ya")</f>
+      <c r="E32" s="18">
+        <f t="shared" ref="E32:F34" si="0">C32/COUNTIFS($F$5:$F$14, "Ya")</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F32" s="33">
-        <f>D32/COUNTIFS($F$5:$F$14, "Ya")</f>
-        <v>0.16666666666666666</v>
+      <c r="F32" s="18">
+        <f>D32/COUNTIFS($F$5:$F$14, "Tidak")</f>
+        <v>0.25</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1614,26 +1765,26 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="5">
+    <row r="33" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="17">
         <f>COUNTIFS($D$5:$D$14, "Menikah", $F$5:$F$14, "Ya")</f>
         <v>5</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="17">
         <f>COUNTIFS($D$5:$D$14, "Single", $F$5:$F$14, "Tidak")</f>
         <v>3</v>
       </c>
-      <c r="E33" s="33">
-        <f t="shared" ref="E33:E34" si="5">C33/COUNTIFS($F$5:$F$14, "Ya")</f>
+      <c r="E33" s="18">
+        <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="F33" s="33">
-        <f t="shared" ref="F33:F34" si="6">D33/COUNTIFS($F$5:$F$14, "Ya")</f>
-        <v>0.5</v>
+      <c r="F33" s="18">
+        <f t="shared" ref="F33:F34" si="1">D33/COUNTIFS($F$5:$F$14, "Tidak")</f>
+        <v>0.75</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1648,10 +1799,10 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="20" t="s">
-        <v>1</v>
+    <row r="34" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="C34" s="20">
         <f>SUM(C32:C33)</f>
@@ -1661,13 +1812,13 @@
         <f>SUM(D32:D33)</f>
         <v>4</v>
       </c>
-      <c r="E34" s="33">
-        <f t="shared" si="5"/>
+      <c r="E34" s="18">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F34" s="33">
-        <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+      <c r="F34" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1682,13 +1833,13 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1702,15 +1853,15 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+    <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1724,20 +1875,20 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>52</v>
+    <row r="37" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1752,26 +1903,26 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="5">
+    <row r="38" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="17">
         <f>COUNTIFS($E$5:$E$14, "Tidak ada", $F$5:$F$14, "Ya")</f>
         <v>2</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="17">
         <f>COUNTIFS($E$5:$E$14, "Tidak ada", $F$5:$F$14, "Tidak")</f>
         <v>2</v>
       </c>
-      <c r="E38" s="33">
-        <f>C38/COUNTIFS($F$5:$F$14, "Ya")</f>
+      <c r="E38" s="18">
+        <f t="shared" ref="E38:F41" si="2">C38/COUNTIFS($F$5:$F$14, "Ya")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F38" s="33">
-        <f>D38/COUNTIFS($F$5:$F$14, "Ya")</f>
-        <v>0.33333333333333331</v>
+      <c r="F38" s="18">
+        <f>D38/COUNTIFS($F$5:$F$14, "Tidak")</f>
+        <v>0.5</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1786,25 +1937,25 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="5">
+    <row r="39" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="17">
         <f>COUNTIFS($E$5:$E$14, "Banyak", $F$5:$F$14, "Ya")</f>
         <v>2</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="17">
         <f>COUNTIFS($E$5:$E$14, "Banyak", $F$5:$F$14, "Tidak")</f>
         <v>0</v>
       </c>
-      <c r="E39" s="33">
-        <f t="shared" ref="E39:E41" si="7">C39/COUNTIFS($F$5:$F$14, "Ya")</f>
+      <c r="E39" s="18">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F39" s="33">
-        <f t="shared" ref="F39:F41" si="8">D39/COUNTIFS($F$5:$F$14, "Ya")</f>
+      <c r="F39" s="18">
+        <f t="shared" ref="F39:F41" si="3">D39/COUNTIFS($F$5:$F$14, "Tidak")</f>
         <v>0</v>
       </c>
       <c r="G39" s="2"/>
@@ -1820,26 +1971,26 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="5">
+    <row r="40" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="17">
         <f>COUNTIFS($E$5:$E$14, "Sedikit", $F$5:$F$14, "Ya")</f>
         <v>2</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="17">
         <f>COUNTIFS($E$5:$E$14, "Sedikit", $F$5:$F$14, "Tidak")</f>
         <v>2</v>
       </c>
-      <c r="E40" s="33">
-        <f t="shared" si="7"/>
+      <c r="E40" s="18">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F40" s="33">
-        <f t="shared" si="8"/>
-        <v>0.33333333333333331</v>
+      <c r="F40" s="18">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1854,10 +2005,10 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="20" t="s">
-        <v>1</v>
+    <row r="41" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="C41" s="20">
         <f>SUM(C38:C40)</f>
@@ -1867,13 +2018,13 @@
         <f>SUM(D38:D40)</f>
         <v>4</v>
       </c>
-      <c r="E41" s="33">
-        <f t="shared" si="7"/>
+      <c r="E41" s="18">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F41" s="33">
-        <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+      <c r="F41" s="18">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1888,13 +2039,13 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+    <row r="42" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1908,15 +2059,15 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+    <row r="43" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1930,17 +2081,17 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+    <row r="44" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="D44" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -1954,23 +2105,23 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="6">
+    <row r="45" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="17">
         <f>COUNTIFS($F$5:$F$14, "Ya")</f>
         <v>6</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="18">
         <f>C45/$C$47</f>
         <v>0.6</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="2"/>
+      <c r="E45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -1984,21 +2135,21 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="6">
+    <row r="46" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="17">
         <f>COUNTIFS($F$5:$F$14, "Tidak")</f>
         <v>4</v>
       </c>
-      <c r="D46" s="34">
-        <f t="shared" ref="D46:D47" si="9">C46/$C$47</f>
+      <c r="D46" s="18">
+        <f>C46/$C$47</f>
         <v>0.4</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="1"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2012,21 +2163,21 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="21">
+    <row r="47" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="20">
         <f>SUM(C45:C46)</f>
         <v>10</v>
       </c>
-      <c r="D47" s="34">
-        <f t="shared" si="9"/>
+      <c r="D47" s="18">
+        <f>C47/$C$47</f>
         <v>1</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="1"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -2040,13 +2191,13 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+    <row r="48" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="1"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2060,13 +2211,13 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+    <row r="49" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2080,17 +2231,17 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+    <row r="50" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="21">
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="1"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2104,15 +2255,15 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+    <row r="51" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="1"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2126,15 +2277,15 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
     </row>
-    <row r="52" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+    <row r="52" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="1"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2148,15 +2299,15 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+    <row r="53" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="1"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -2170,15 +2321,15 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-      <c r="B54" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+    <row r="54" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="1"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -2192,13 +2343,13 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+    <row r="55" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="1"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -2212,15 +2363,15 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+    <row r="56" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="1"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -2234,18 +2385,18 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+    <row r="57" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="8">
+        <v>31</v>
+      </c>
+      <c r="C57" s="3">
         <f>COUNTIFS($B$5:$B$14, "Tua", $F$5:$F$14, "Ya") / COUNTIF(F5:F14, "Ya")</f>
         <v>0.5</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="1"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2259,18 +2410,18 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+    <row r="58" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="8">
+        <v>32</v>
+      </c>
+      <c r="C58" s="3">
         <f>COUNTIFS($C$5:$C$14, "Tinggi", $F$5:$F$14, "Ya") / COUNTIF(F6:F15, "Ya")</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="1"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2284,18 +2435,18 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
     </row>
-    <row r="59" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+    <row r="59" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
       <c r="B59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="8">
+        <v>33</v>
+      </c>
+      <c r="C59" s="3">
         <f>COUNTIFS($D$5:$D$14, "Single", $F$5:$F$14, "Ya") / COUNTIF(F7:F16, "Ya")</f>
         <v>0.2</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="1"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -2309,18 +2460,18 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="8">
-        <f t="shared" ref="C60" si="10">COUNTIFS($B$5:$B$14, "Tua", $F$5:$F$14, "Ya") / COUNTIF(F8:F17, "Ya")</f>
+        <v>34</v>
+      </c>
+      <c r="C60" s="3">
+        <f>COUNTIFS($B$5:$B$14, "Tua", $F$5:$F$14, "Ya") / COUNTIF(F8:F17, "Ya")</f>
         <v>0.75</v>
       </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="1"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -2334,18 +2485,18 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+    <row r="61" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="9">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1">
         <f>COUNTIFS($F$5:$F$14, "Ya")/COUNTA($F$5:$F$14)</f>
         <v>0.6</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="1"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -2359,13 +2510,13 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
     </row>
-    <row r="62" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+    <row r="62" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="1"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -2379,15 +2530,15 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
     </row>
-    <row r="63" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+    <row r="63" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="1"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -2401,18 +2552,18 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
     </row>
-    <row r="64" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+    <row r="64" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="9">
+        <v>36</v>
+      </c>
+      <c r="C64" s="1">
         <f>COUNTIFS($C$5:$C$14, "Tinggi", $F$5:$F$14, "Tidak") / COUNTIF($F$5:$F$14, "Tidak")</f>
         <v>0</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="1"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -2426,18 +2577,18 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
     </row>
-    <row r="65" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+    <row r="65" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="9">
-        <f t="shared" ref="C65" si="11">COUNTIFS($B$5:$B$14, "Tua", $F$5:$F$14, "Tidak") / COUNTIF($F$5:$F$14, "Tidak")</f>
+        <v>37</v>
+      </c>
+      <c r="C65" s="1">
+        <f>COUNTIFS($B$5:$B$14, "Tua", $F$5:$F$14, "Tidak") / COUNTIF($F$5:$F$14, "Tidak")</f>
         <v>0</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="1"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -2451,18 +2602,18 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
     </row>
-    <row r="66" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+    <row r="66" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="9">
+        <v>38</v>
+      </c>
+      <c r="C66" s="1">
         <f>COUNTIFS($D$5:$D$14, "Single", $F$5:$F$14, "Tidak") / COUNTIF($F$5:$F$14, "Tidak")</f>
         <v>0.75</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="1"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -2476,18 +2627,18 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
     </row>
-    <row r="67" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+    <row r="67" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="9">
+        <v>39</v>
+      </c>
+      <c r="C67" s="1">
         <f>COUNTIFS($E$5:$E$14, "Tidak ada", $F$5:$F$14, "Tidak") / COUNTIF($F$5:$F$14, "Tidak")</f>
         <v>0.5</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="1"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -2501,18 +2652,18 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
     </row>
-    <row r="68" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+    <row r="68" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="9">
+        <v>20</v>
+      </c>
+      <c r="C68" s="1">
         <f>COUNTIFS($F$5:$F$14, "Tidak")/COUNTA($F$5:$F$14)</f>
         <v>0.4</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="1"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -2526,13 +2677,13 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
     </row>
-    <row r="69" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+    <row r="69" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="1"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -2546,13 +2697,13 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
     </row>
-    <row r="70" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+    <row r="70" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="1"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -2566,101 +2717,101 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
     </row>
-    <row r="71" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
+    <row r="71" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="53"/>
+      <c r="C71" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="55"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="53"/>
+      <c r="N71" s="53"/>
+      <c r="O71" s="53"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
     </row>
-    <row r="72" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
+    <row r="72" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="54"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="53"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
     </row>
-    <row r="73" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="30"/>
+    <row r="73" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="53"/>
+      <c r="C73" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="58"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="61"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="30"/>
+    <row r="74" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="54"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="61"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
     </row>
-    <row r="75" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+    <row r="75" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="1"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2674,18 +2825,18 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="12">
+    <row r="76" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="39"/>
+      <c r="C76" s="21">
         <f>(C57*C58*C59*C60*C61)/D45</f>
         <v>0.05</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="2"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="1"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -2699,18 +2850,18 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="12">
+    <row r="77" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="39"/>
+      <c r="C77" s="21">
         <f>(C64*C65*C66*C67*C68)/D46</f>
         <v>0</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="1"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -2724,13 +2875,13 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+    <row r="78" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="1"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -2744,15 +2895,15 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
-      <c r="B79" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+    <row r="79" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
+      <c r="B79" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="63"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="1"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -2766,13 +2917,13 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
     </row>
-    <row r="80" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
+    <row r="80" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="1"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -2786,15 +2937,15 @@
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
     </row>
-    <row r="81" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+    <row r="81" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="65"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="27"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -2808,19 +2959,19 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
     </row>
-    <row r="82" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="17" t="e">
+    <row r="82" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="65"/>
+      <c r="C82" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="67"/>
+      <c r="E82" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F82" s="27" t="e">
         <f>D76/D76+D77</f>
         <v>#DIV/0!</v>
       </c>
@@ -2837,19 +2988,19 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
     </row>
-    <row r="83" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="17" t="e">
+    <row r="83" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="65"/>
+      <c r="C83" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="67"/>
+      <c r="E83" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="27" t="e">
         <f>D77/D76+D77</f>
         <v>#DIV/0!</v>
       </c>
@@ -2866,13 +3017,13 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
     </row>
-    <row r="84" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
+    <row r="84" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="27"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -2886,13 +3037,13 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
     </row>
-    <row r="85" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
+    <row r="85" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="1"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -2906,21 +3057,21 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
     </row>
-    <row r="86" spans="1:18" ht="18" x14ac:dyDescent="0.4">
-      <c r="A86" s="2"/>
-      <c r="B86" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
+    <row r="86" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="1"/>
+      <c r="B86" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="69"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="69"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="68"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -2928,13 +3079,13 @@
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
     </row>
-    <row r="87" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
+    <row r="87" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="1"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -2948,13 +3099,13 @@
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
     </row>
-    <row r="88" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
+    <row r="88" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="1"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -2968,13 +3119,13 @@
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
     </row>
-    <row r="89" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
+    <row r="89" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="1"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -2988,13 +3139,13 @@
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
     </row>
-    <row r="90" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
+    <row r="90" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="1"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -3008,13 +3159,13 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
     </row>
-    <row r="91" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
+    <row r="91" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="1"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -3028,13 +3179,13 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
     </row>
-    <row r="92" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
+    <row r="92" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="1"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -3048,13 +3199,13 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
+    <row r="93" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="1"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -3068,13 +3219,13 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
+    <row r="94" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="1"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -3088,13 +3239,13 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
+    <row r="95" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="1"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -3108,13 +3259,13 @@
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
     </row>
-    <row r="96" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
+    <row r="96" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="1"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -3128,13 +3279,13 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
     </row>
-    <row r="97" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
+    <row r="97" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="1"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -3148,13 +3299,13 @@
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
     </row>
-    <row r="98" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+    <row r="98" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="1"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3168,13 +3319,13 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
     </row>
-    <row r="99" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="2"/>
+    <row r="99" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="1"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3188,13 +3339,13 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="2"/>
+    <row r="100" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="1"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -3208,13 +3359,13 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="2"/>
+    <row r="101" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="1"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -3228,11 +3379,11 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
+    <row r="102" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="1"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -3246,11 +3397,11 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
+    <row r="103" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="1"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -3264,11 +3415,11 @@
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
     </row>
-    <row r="104" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
+    <row r="104" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="1"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -3282,11 +3433,11 @@
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
     </row>
-    <row r="105" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+    <row r="105" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="1"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -3300,11 +3451,11 @@
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
     </row>
-    <row r="106" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
+    <row r="106" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="1"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -3318,11 +3469,11 @@
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
     </row>
-    <row r="107" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
+    <row r="107" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="1"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -3336,11 +3487,11 @@
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
     </row>
-    <row r="108" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
+    <row r="108" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="1"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -3354,11 +3505,11 @@
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
     </row>
-    <row r="109" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="2"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="2"/>
+    <row r="109" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="1"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -3372,16 +3523,16 @@
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
     </row>
-    <row r="110" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="2"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="11"/>
+    <row r="110" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="26"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -3390,16 +3541,16 @@
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
     </row>
-    <row r="111" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="2"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="11"/>
+    <row r="111" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="26"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -3408,16 +3559,16 @@
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
     </row>
-    <row r="112" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="2"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
+    <row r="112" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -3426,16 +3577,16 @@
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
     </row>
-    <row r="113" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
+    <row r="113" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -3444,14 +3595,14 @@
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
     </row>
-    <row r="114" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="2"/>
-      <c r="D114" s="8">
+    <row r="114" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1"/>
+      <c r="D114" s="1">
         <f>(0/8)*(0/6)*(0/6)*(2/3)*(3/7)</f>
         <v>0</v>
       </c>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="1"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -3465,14 +3616,14 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
     </row>
-    <row r="115" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="2"/>
-      <c r="D115" s="13">
+    <row r="115" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1"/>
+      <c r="D115" s="3">
         <f>(5/8)*(5/8)*(1/2)*(3/8)*(4/7)</f>
         <v>4.1852678571428568E-2</v>
       </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="1"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -3486,11 +3637,11 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
     </row>
-    <row r="116" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
+    <row r="116" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="1"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -3504,11 +3655,11 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
     </row>
-    <row r="117" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+    <row r="117" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="1"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -3522,11 +3673,11 @@
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
     </row>
-    <row r="118" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
+    <row r="118" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="1"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -3540,11 +3691,11 @@
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
     </row>
-    <row r="119" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="2"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="2"/>
+    <row r="119" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="1"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -3558,13 +3709,13 @@
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
     </row>
-    <row r="120" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="2"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="14"/>
+    <row r="120" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F120" s="27"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -3578,13 +3729,13 @@
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
     </row>
-    <row r="121" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="2"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="17">
+    <row r="121" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F121" s="27">
         <f>(D114)/(D114+D115)</f>
         <v>0</v>
       </c>
@@ -3601,11 +3752,11 @@
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="2"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="17">
+    <row r="122" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="27">
         <f>(D115)/(D114+D115)</f>
         <v>1</v>
       </c>
@@ -3622,11 +3773,11 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
     </row>
-    <row r="123" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="14"/>
+    <row r="123" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="27"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -3640,11 +3791,11 @@
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
     </row>
-    <row r="124" spans="1:18" ht="18" x14ac:dyDescent="0.4">
-      <c r="A124" s="2"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="2"/>
+    <row r="124" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="1"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="1"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -3658,13 +3809,13 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
     </row>
-    <row r="125" spans="1:18" ht="18" x14ac:dyDescent="0.4">
-      <c r="A125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
+    <row r="125" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="1"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
@@ -3676,11 +3827,11 @@
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
     </row>
-    <row r="126" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
+    <row r="126" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="1"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -3694,11 +3845,11 @@
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
+    <row r="127" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="1"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -3712,11 +3863,11 @@
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
     </row>
-    <row r="128" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
+    <row r="128" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="1"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -3730,11 +3881,11 @@
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
     </row>
-    <row r="129" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+    <row r="129" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="1"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -3748,11 +3899,11 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+    <row r="130" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="1"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -3766,11 +3917,11 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
     </row>
-    <row r="131" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
+    <row r="131" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="1"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -3784,11 +3935,11 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
     </row>
-    <row r="132" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
+    <row r="132" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="1"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -3802,11 +3953,11 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
     </row>
-    <row r="133" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
+    <row r="133" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="1"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -3820,11 +3971,11 @@
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
     </row>
-    <row r="134" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+    <row r="134" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="1"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -3838,11 +3989,11 @@
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
     </row>
-    <row r="135" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
+    <row r="135" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="1"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -3856,11 +4007,11 @@
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
     </row>
-    <row r="136" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
+    <row r="136" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="1"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -3874,11 +4025,11 @@
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
     </row>
-    <row r="137" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
+    <row r="137" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="1"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -3892,8 +4043,8 @@
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
     </row>
-    <row r="138" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="F138" s="2"/>
+    <row r="138" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F138" s="1"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -3909,28 +4060,27 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B86:L86"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="A77:B77"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:O72"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C73:O74"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="C71:O72"/>
-    <mergeCell ref="C73:O74"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>